--- a/数据库系统设计.xlsx
+++ b/数据库系统设计.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
   <si>
     <t>CUSTOMER：客户基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -61,117 +61,287 @@
     <t>DT</t>
   </si>
   <si>
+    <t>记录创建的时间。_x000D_</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>N16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATUS_CD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户订单状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录客户订单的归属客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ITEM_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单项标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单项标识。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单项状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户电话</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CUST_TELEPHONE     </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录客户订单的总价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUST_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER：订单信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_CREATE_DATE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWD</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VA20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU：cpu表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录CPU的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU_NUM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpu数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录CPU的数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORY：内存表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORY_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录内存的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMORY_SIZE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录内存的大小。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM：系统表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统的名称。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_KIND</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统的类型。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_KIND：系统类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_KIND_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类型标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统类型的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_KIND_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统类型名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统类型的名称。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD_DISK_KIND：硬盘类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARD_DISK_KIND_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘类型标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录硬盘类型的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER：用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录用户的主键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>创建时间</t>
-  </si>
-  <si>
-    <t>记录创建的时间。_x000D_</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>STATUS_CD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户订单标识</t>
-  </si>
-  <si>
-    <t>记录客户订单标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户订单状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录客户订单的归属客户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUSTOMER_ORDER_ITEM：订单项信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ITEM_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单项标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录订单项标识。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BELONG_CUST_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归属客户标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录订单项的归属客户，同作用对象的产权客户。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单项状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户电话</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CUST_TELEPHONE     </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单总价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录客户订单的总价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUST_ORDER_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER：订单信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -179,195 +349,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>记录订单标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录订单状态。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_CREATE_DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ORDER_SUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWD</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户密码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VA20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU：cpu表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录CPU的主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPU_NUM</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cpu数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录CPU的数量。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMORY：内存表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMORY_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录内存的主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMORY_SIZE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存大小</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录内存的大小。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM：系统表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录系统的主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录系统的名称。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_KIND</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录系统的类型。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_KIND：系统类型表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_KIND_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统类型标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录系统类型的主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_KIND_NAME</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统类型名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录系统类型的名称。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD_DISK_KIND：硬盘类型表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HARD_DISK_KIND_ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬盘类型标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录硬盘类型的主键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER：用户</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>记录用户的主键。</t>
+    <t>客户标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单项的归属客户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_ITEM：订单项信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +445,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +455,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -527,9 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,6 +539,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -825,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:D41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -838,12 +842,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -861,13 +865,13 @@
     </row>
     <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
@@ -875,7 +879,7 @@
     </row>
     <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
@@ -889,435 +893,435 @@
     </row>
     <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="A22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B37" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C37" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="6" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4" s="9" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>14</v>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="A41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>14</v>
+      <c r="A42" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="A45" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>14</v>
+      <c r="A46" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>52</v>
+      <c r="A47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A45:D45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/数据库系统设计.xlsx
+++ b/数据库系统设计.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CED66A32-FE63-4F88-83AF-DD122622A284}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="137">
   <si>
     <t>CUSTOMER：客户基本信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -362,13 +364,207 @@
   </si>
   <si>
     <t>ORDER_ITEM：订单项信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU：CPU表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">windows </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystem_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystem：系统表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystem_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystemType：系统类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystemType_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystemType_NAME</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OperateSystemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardDiskType：硬盘类型表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardDiskType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HardDisk_ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬盘类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>period</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>订购时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cpu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memory</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateSystemType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>operateSystem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemHardDiskType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统盘类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataHardDiskType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据盘类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataHardDiskSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据盘大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bandWidth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带宽大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>userID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单的订购时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单的CPU数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单的内存大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单的系统类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录系统盘类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数据盘类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录数据盘大小</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录带宽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录订单所属的用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,7 +641,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +660,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -512,12 +714,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,13 +754,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="常规 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -826,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,17 +1065,26 @@
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="98.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.125" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -863,7 +1098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -877,7 +1112,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -891,7 +1126,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -904,16 +1139,62 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="I5" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -926,8 +1207,20 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -941,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
@@ -954,8 +1247,12 @@
       <c r="D11" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="10" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" s="10" customFormat="1" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
@@ -968,8 +1265,20 @@
       <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -982,16 +1291,20 @@
       <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="15" spans="1:12" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:12" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1005,7 +1318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1019,7 +1332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
@@ -1033,7 +1346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1047,21 +1360,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+    <row r="22" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1075,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1088,8 +1401,20 @@
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>42</v>
       </c>
@@ -1102,16 +1427,90 @@
       <c r="D25" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="E25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
@@ -1124,8 +1523,20 @@
       <c r="D28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="J28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1138,16 +1549,57 @@
       <c r="D29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="E29" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1160,8 +1612,35 @@
       <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="E32" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -1174,8 +1653,20 @@
       <c r="D33" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="J33" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1188,16 +1679,72 @@
       <c r="D34" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="E34" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="8" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>60</v>
       </c>
@@ -1210,8 +1757,20 @@
       <c r="D37" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="E37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>63</v>
       </c>
@@ -1225,7 +1784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>66</v>
       </c>
@@ -1239,15 +1798,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+    <row r="41" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>70</v>
       </c>
@@ -1261,7 +1820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>73</v>
       </c>
@@ -1275,15 +1834,15 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+    <row r="45" spans="1:13" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+    </row>
+    <row r="46" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>77</v>
       </c>
@@ -1297,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>70</v>
       </c>
@@ -1312,7 +1871,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A45:D45"/>
@@ -1322,9 +1881,597 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="E29:H29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187C4ECA-7F74-4B76-B022-FC5A621F6917}">
+  <dimension ref="A1:I33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="E11" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A28:D28"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>